--- a/Graph of Karatsuba Algorithm.xlsx
+++ b/Graph of Karatsuba Algorithm.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danis\Desktop\CPT 212\CPT212-Asg1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7162C4-8835-424B-9B1E-0CFB335E4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -34,31 +43,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,9 +79,21 @@
         <bgColor rgb="FFAEAAAA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFAEAAAA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -82,279 +107,54 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1600">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Average Number of Operations vs Number of Digit, n</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF9900">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF9900">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FF9900">
-                    <a:alpha val="100000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$14</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="44324254"/>
-        <c:axId val="279022943"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="44324254"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>n</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="279022943"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="279022943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Average Number of Operations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44324254"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -371,7 +171,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-MY" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -384,15 +184,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -406,17 +215,77 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$57:$A$64</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$57:$B$64</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1F5-4770-AFE1-ABFC4EF1690A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -424,6 +293,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^1.585</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -437,18 +312,87 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$57:$A$64</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$57:$C$64</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1F5-4770-AFE1-ABFC4EF1690A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="682560577"/>
         <c:axId val="1580546371"/>
       </c:lineChart>
@@ -474,7 +418,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-MY" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -490,7 +434,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -503,9 +447,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1580546371"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1580546371"/>
@@ -549,7 +499,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-MY" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -581,9 +531,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="682560577"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -601,16 +554,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -627,7 +592,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-MY" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -640,15 +605,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple Multiplication Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -662,17 +636,95 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$72:$A$82</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$72:$B$82</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>898.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1181.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1489.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1838.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2235.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2594.1799999999998</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2827-4552-86EF-45FD6D9467F3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -680,6 +732,12 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karatsuba Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -693,18 +751,105 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$72:$A$82</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$72:$C$82</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>486.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>692.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>877.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1203.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1534.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1798.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2099.6999999999998</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2827-4552-86EF-45FD6D9467F3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="372378614"/>
         <c:axId val="1644089841"/>
       </c:lineChart>
@@ -730,7 +875,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-MY" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -746,7 +891,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -759,9 +904,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1644089841"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1644089841"/>
@@ -805,7 +956,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-MY" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -837,9 +988,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="372378614"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -857,27 +1011,1105 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Number of Operations against n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17085720322111439"/>
+          <c:y val="0.13535808023997001"/>
+          <c:w val="0.7616688482647852"/>
+          <c:h val="0.77467918433272764"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Number of Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.0002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.84020000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.18740000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575.83860000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>819.03219999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1063.0193999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1461.4834000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1837.0609999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2181.5218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2547.9153999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4675-4EFA-8D5A-F125B667DBFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52380704"/>
+        <c:axId val="52392224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52380704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52392224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52392224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-MY" baseline="0"/>
+                  <a:t> Number of Operations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-MY"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52380704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7172325" cy="4429125"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -886,32 +2118,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -925,9 +2132,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -936,17 +2149,53 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279782E8-7539-36DA-2503-548052056545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1136,20 +2385,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,143 +2414,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>37.54</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>51.0002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>126.05</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>162.84020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>282.4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>346.18740000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>486.45</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>575.83860000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>692.09</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>819.03219999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>877.06</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1063.0193999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1203.01</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1461.4834000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1534.26</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1837.0609999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1798.2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2181.5218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2099.7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="56">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2547.9153999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -1304,95 +2577,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B57" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C58" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B59" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C59" s="3">
         <v>17.11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B60" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3">
         <v>38.46</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B62" s="3">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="C62" s="3">
         <v>51.35</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3">
         <v>65.56</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B64" s="3">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="C64" s="3">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,20 +2676,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="2">
         <v>168.11</v>
@@ -1425,9 +2698,9 @@
         <v>37.54</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B74" s="2">
         <v>294.45</v>
@@ -1436,20 +2709,20 @@
         <v>126.05</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2">
         <v>461.41</v>
       </c>
       <c r="C75" s="2">
-        <v>282.4</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>282.39999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B76" s="2">
         <v>666.05</v>
@@ -1458,9 +2731,9 @@
         <v>486.45</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B77" s="2">
         <v>898.22</v>
@@ -1469,20 +2742,20 @@
         <v>692.09</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B78" s="2">
-        <v>1181.65</v>
+        <v>1181.6500000000001</v>
       </c>
       <c r="C78" s="2">
         <v>877.06</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2">
         <v>1489.04</v>
@@ -1491,9 +2764,9 @@
         <v>1203.01</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2">
         <v>1838.66</v>
@@ -1502,9 +2775,9 @@
         <v>1534.26</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B81" s="2">
         <v>2235.83</v>
@@ -1513,18 +2786,19 @@
         <v>1798.2</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B82" s="2">
-        <v>2594.18</v>
+        <v>2594.1799999999998</v>
       </c>
       <c r="C82" s="2">
-        <v>2099.7</v>
+        <v>2099.6999999999998</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Graph of Karatsuba Algorithm.xlsx
+++ b/Graph of Karatsuba Algorithm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danis\Desktop\CPT 212\CPT212-Asg1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7162C4-8835-424B-9B1E-0CFB335E4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3459F-7B55-44B4-8260-F016A58AC065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,11 +58,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,11 +127,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,15 +1062,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Number of Operations against n</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Karatsuba</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1110,9 +1113,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17085720322111439"/>
+          <c:x val="0.13667894902484953"/>
           <c:y val="0.13535808023997001"/>
-          <c:w val="0.7616688482647852"/>
+          <c:w val="0.79584717247854697"/>
           <c:h val="0.77467918433272764"/>
         </c:manualLayout>
       </c:layout>
@@ -1166,9 +1169,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1282,13 +1283,13 @@
                   <c:v>819.03219999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1063.0193999999999</c:v>
+                  <c:v>1060.1522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1461.4834000000001</c:v>
+                  <c:v>1437.4194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1837.0609999999999</c:v>
+                  <c:v>1835.5634</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2181.5218</c:v>
@@ -1323,7 +1324,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1395,9 +1396,42 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="52392224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1444,13 +1478,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-MY"/>
-                  <a:t>Average</a:t>
+                  <a:t>Average Number of Operations</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-MY" baseline="0"/>
-                  <a:t> Number of Operations</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-MY"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1556,7 +1585,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" i="0" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2158,15 +2187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>521970</xdr:colOff>
+      <xdr:colOff>767715</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>750570</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2397,8 +2426,8 @@
   </sheetPr>
   <dimension ref="A3:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>1063.0193999999999</v>
+        <v>1060.1522</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>1461.4834000000001</v>
+        <v>1437.4194</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2512,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>1837.0609999999999</v>
+        <v>1835.5634</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2502,69 +2531,53 @@
         <v>2547.9153999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
